--- a/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{635854AE-A4CC-452E-9A6A-766B7DF235FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DEBEA5-435E-4969-B955-1247E4A54DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F11648CA-48FD-4449-AC2F-AEFC14C6B3CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6665F1C8-723F-4DB5-94C7-5B75EE7C6FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="382">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>22,17%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>90,4%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>95,05%</t>
   </si>
   <si>
-    <t>77,83%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>90,85%</t>
+    <t>90,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,979 +128,991 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>88,2%</t>
   </si>
   <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>9,92%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>90,08%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>7,5%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>92,5%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1124,55 +1136,55 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D7992-5AE5-4DC3-A55E-0A201ABD45BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B01DDAF-9A8E-40AC-95AF-D51784B2420F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2361,10 +2373,10 @@
         <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2391,13 @@
         <v>42115</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2394,10 +2406,10 @@
         <v>12913</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2409,13 +2421,13 @@
         <v>55028</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2483,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2486,23 +2498,23 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2514,10 +2526,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2547,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2545,13 +2557,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2563,7 +2575,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -2594,13 +2606,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2632,13 +2644,13 @@
         <v>43508</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2647,13 +2659,13 @@
         <v>23625</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -2662,13 +2674,13 @@
         <v>67134</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2695,13 @@
         <v>428797</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -2698,13 +2710,13 @@
         <v>196496</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>602</v>
@@ -2713,13 +2725,13 @@
         <v>625293</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,7 +2787,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3023081D-80EC-4B3D-BE62-0CCDC54EA306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75712590-805E-4879-AD04-59C780F3BF5E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2814,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,10 +2936,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2939,10 +2951,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2954,10 +2966,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2990,7 +3002,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3005,7 +3017,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3076,13 +3088,13 @@
         <v>2719</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3091,13 +3103,13 @@
         <v>947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3106,13 +3118,13 @@
         <v>3666</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3139,13 @@
         <v>35898</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3142,10 +3154,10 @@
         <v>28927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3157,13 +3169,13 @@
         <v>64825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3243,13 @@
         <v>4101</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3246,13 +3258,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3261,13 +3273,13 @@
         <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3294,13 @@
         <v>39670</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3297,10 +3309,10 @@
         <v>41272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3312,13 +3324,13 @@
         <v>80942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3401,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3404,10 +3416,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3419,10 +3431,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3452,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3455,7 +3467,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3470,7 +3482,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3541,13 +3553,13 @@
         <v>1007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3559,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3571,13 +3583,13 @@
         <v>1007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3604,10 @@
         <v>19700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3610,7 +3622,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3622,10 +3634,10 @@
         <v>30032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3684,7 +3696,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3694,39 +3706,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,39 +3751,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,39 +3796,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3845,13 @@
         <v>7827</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3848,13 +3860,13 @@
         <v>2849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3863,13 +3875,13 @@
         <v>10676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3896,13 @@
         <v>134750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -3899,13 +3911,13 @@
         <v>97312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -3914,13 +3926,13 @@
         <v>232062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3988,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3998,7 +4010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4389295-DEE9-4DCA-AE7A-62F0EE9AD3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7936E45E-DB8A-4044-A5CD-C2DB87E07F4F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4015,7 +4027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4122,13 +4134,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4140,10 +4152,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4152,13 +4164,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,10 +4185,10 @@
         <v>16144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4191,7 +4203,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4203,10 +4215,10 @@
         <v>27787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4277,13 +4289,13 @@
         <v>4059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4292,13 +4304,13 @@
         <v>2399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4307,13 +4319,13 @@
         <v>6458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4340,13 @@
         <v>77513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -4343,10 +4355,10 @@
         <v>43892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4358,13 +4370,13 @@
         <v>121405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4444,13 @@
         <v>3794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4447,13 +4459,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4462,13 +4474,13 @@
         <v>4610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4495,13 @@
         <v>109329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4498,10 +4510,10 @@
         <v>70643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4513,13 +4525,13 @@
         <v>179971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4599,13 @@
         <v>3343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4602,13 +4614,13 @@
         <v>1026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4617,13 +4629,13 @@
         <v>4369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4650,13 @@
         <v>88085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4653,10 +4665,10 @@
         <v>55081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4668,13 +4680,13 @@
         <v>143166</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4757,13 +4769,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4772,13 +4784,13 @@
         <v>1095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4808,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4808,10 +4820,10 @@
         <v>29704</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4823,10 +4835,10 @@
         <v>74551</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4900,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>261</v>
@@ -4910,13 +4922,13 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4928,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>261</v>
@@ -4959,13 +4971,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5008,13 +5020,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5046,13 +5058,13 @@
         <v>12203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5061,13 +5073,13 @@
         <v>5334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5076,13 +5088,13 @@
         <v>17538</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5109,13 @@
         <v>337798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>202</v>
@@ -5112,13 +5124,13 @@
         <v>210964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>512</v>
@@ -5127,13 +5139,13 @@
         <v>548761</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,7 +5201,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B42BCDE-E858-4403-933E-68ECD1116FA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE2AC29-EDFD-4399-818F-F4AEC1597A55}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5338,10 +5350,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5350,13 +5362,13 @@
         <v>2694</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5365,13 +5377,13 @@
         <v>2694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5401,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5401,10 +5413,10 @@
         <v>14343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5416,10 +5428,10 @@
         <v>20741</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5490,13 +5502,13 @@
         <v>4718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5505,13 +5517,13 @@
         <v>6379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5520,13 +5532,13 @@
         <v>11096</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5553,13 @@
         <v>53714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5556,13 +5568,13 @@
         <v>49518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -5571,13 +5583,13 @@
         <v>103233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5657,13 @@
         <v>14019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5660,13 +5672,13 @@
         <v>7200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5675,13 +5687,13 @@
         <v>21219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5708,13 @@
         <v>84721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5711,13 +5723,13 @@
         <v>73850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -5726,13 +5738,13 @@
         <v>158571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5812,13 @@
         <v>9575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5815,13 +5827,13 @@
         <v>8684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5830,13 +5842,13 @@
         <v>18259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5863,13 @@
         <v>105019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5866,13 +5878,13 @@
         <v>135347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -5881,13 +5893,13 @@
         <v>240367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5967,13 @@
         <v>9674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5970,13 +5982,13 @@
         <v>5903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5985,13 +5997,13 @@
         <v>15577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6018,13 @@
         <v>62089</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6021,13 +6033,13 @@
         <v>54162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -6036,13 +6048,13 @@
         <v>116251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6113,10 +6125,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6128,10 +6140,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6143,10 +6155,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6176,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6179,7 +6191,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6194,7 +6206,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6265,13 +6277,13 @@
         <v>37986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6280,13 +6292,13 @@
         <v>30860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -6295,13 +6307,13 @@
         <v>68846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6328,13 @@
         <v>315032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6331,13 +6343,13 @@
         <v>330351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>736</v>
@@ -6346,13 +6358,13 @@
         <v>645382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6420,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29DEBEA5-435E-4969-B955-1247E4A54DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BB2937-71D6-4408-849B-D8777E908434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6665F1C8-723F-4DB5-94C7-5B75EE7C6FEC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56B994E3-723E-464F-A2A6-B273D24AC49C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="376">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>9,62%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>24,99%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>10,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,16%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>90,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>95,05%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>75,01%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>90,25%</t>
+    <t>89,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,55 +128,55 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>85,54%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -185,55 +185,55 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>91,4%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -242,10 +242,10 @@
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>11,23%</t>
@@ -254,31 +254,31 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>25,91%</t>
+    <t>26,72%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>92,25%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>88,77%</t>
   </si>
   <si>
-    <t>74,09%</t>
+    <t>73,28%</t>
   </si>
   <si>
     <t>97,09%</t>
@@ -287,10 +287,10 @@
     <t>91,38%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -299,331 +299,337 @@
     <t>8,21%</t>
   </si>
   <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2015 (Tasa respuesta: 8,05%)</t>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>29,81%</t>
+    <t>24,77%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -632,13 +638,13 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>19,32%</t>
+    <t>20,2%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>70,19%</t>
+    <t>75,23%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -647,148 +653,142 @@
     <t>96,5%</t>
   </si>
   <si>
-    <t>80,68%</t>
+    <t>79,8%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>16,19%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>83,81%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>6,42%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>93,58%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
     <t>2,96%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>7,07%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>92,93%</t>
+    <t>92,74%</t>
   </si>
   <si>
     <t>99,25%</t>
@@ -800,13 +800,13 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>15,12%</t>
+    <t>22,02%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>8,29%</t>
   </si>
   <si>
     <t>95,34%</t>
@@ -815,13 +815,13 @@
     <t>96,45%</t>
   </si>
   <si>
-    <t>84,88%</t>
+    <t>77,98%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>91,71%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -833,55 +833,55 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
@@ -923,9 +923,6 @@
     <t>11,41%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
     <t>25,87%</t>
   </si>
   <si>
@@ -953,9 +950,6 @@
     <t>74,13%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
     <t>90,29%</t>
   </si>
   <si>
@@ -1136,9 +1130,6 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
     <t>15,14%</t>
   </si>
   <si>
@@ -1157,18 +1148,12 @@
     <t>7,55%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
     <t>89,24%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
     <t>91,46%</t>
   </si>
   <si>
@@ -1179,9 +1164,6 @@
   </si>
   <si>
     <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
   </si>
   <si>
     <t>92,45%</t>
@@ -1596,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B01DDAF-9A8E-40AC-95AF-D51784B2420F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEDAE75-AD3D-475E-B987-83AC92462D85}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2373,10 +2355,10 @@
         <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2373,13 @@
         <v>42115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2406,10 +2388,10 @@
         <v>12913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -2421,13 +2403,13 @@
         <v>55028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2465,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2498,23 +2480,23 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2526,10 +2508,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2529,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -2557,13 +2539,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2575,7 +2557,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -2606,13 +2588,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -2644,13 +2626,13 @@
         <v>43508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -2659,13 +2641,13 @@
         <v>23625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -2674,13 +2656,13 @@
         <v>67134</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2677,13 @@
         <v>428797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>192</v>
@@ -2710,13 +2692,13 @@
         <v>196496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>602</v>
@@ -2725,13 +2707,13 @@
         <v>625293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2769,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75712590-805E-4879-AD04-59C780F3BF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BF305A-7321-4AC4-A51F-91AAEA07B9B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2826,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,10 +2918,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2951,10 +2933,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2966,10 +2948,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +2969,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -3002,7 +2984,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3017,7 +2999,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3088,13 +3070,13 @@
         <v>2719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3103,13 +3085,13 @@
         <v>947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3118,13 +3100,13 @@
         <v>3666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3121,13 @@
         <v>35898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3154,7 +3136,7 @@
         <v>28927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>140</v>
@@ -3401,7 +3383,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>160</v>
@@ -3416,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>161</v>
@@ -3431,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>162</v>
@@ -3571,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>168</v>
@@ -3696,7 +3678,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3706,39 +3688,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,39 +3733,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,39 +3778,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,10 +3845,10 @@
         <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3875,13 +3857,13 @@
         <v>10676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3878,13 @@
         <v>134750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -3911,13 +3893,13 @@
         <v>97312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -3926,13 +3908,13 @@
         <v>232062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,7 +3970,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7936E45E-DB8A-4044-A5CD-C2DB87E07F4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709636D-1876-4B72-8830-6B6889A3AE91}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +4009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4134,13 +4116,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4152,10 +4134,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4164,13 +4146,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,10 +4167,10 @@
         <v>16144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4203,7 +4185,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4215,10 +4197,10 @@
         <v>27787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4289,13 +4271,13 @@
         <v>4059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4304,13 +4286,13 @@
         <v>2399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4319,13 +4301,13 @@
         <v>6458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4322,13 @@
         <v>77513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -4355,10 +4337,10 @@
         <v>43892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4370,13 +4352,13 @@
         <v>121405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4426,13 @@
         <v>3794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4459,13 +4441,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4474,13 +4456,13 @@
         <v>4610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4477,13 @@
         <v>109329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4510,10 +4492,10 @@
         <v>70643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4525,13 +4507,13 @@
         <v>179971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4581,13 @@
         <v>3343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4614,13 +4596,13 @@
         <v>1026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4629,13 +4611,13 @@
         <v>4369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4632,13 @@
         <v>88085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4665,10 +4647,10 @@
         <v>55081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4757,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>251</v>
@@ -4897,7 +4879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4912,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>261</v>
@@ -4922,13 +4904,13 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4940,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>261</v>
@@ -4971,13 +4953,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5020,13 +5002,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5201,7 +5183,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5223,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE2AC29-EDFD-4399-818F-F4AEC1597A55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B558BD2-F3FC-49DB-94F6-2919F5DA1DF6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,10 +5332,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5401,7 +5383,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5520,10 +5502,10 @@
         <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5532,13 +5514,13 @@
         <v>11096</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5535,13 @@
         <v>53714</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5568,13 +5550,13 @@
         <v>49518</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -5583,13 +5565,13 @@
         <v>103233</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5639,13 @@
         <v>14019</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5672,13 +5654,13 @@
         <v>7200</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5687,13 +5669,13 @@
         <v>21219</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5690,13 @@
         <v>84721</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5723,13 +5705,13 @@
         <v>73850</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -5738,13 +5720,13 @@
         <v>158571</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5794,13 @@
         <v>9575</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5827,13 +5809,13 @@
         <v>8684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5842,13 +5824,13 @@
         <v>18259</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5845,13 @@
         <v>105019</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5878,10 +5860,10 @@
         <v>135347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>174</v>
@@ -5893,13 +5875,13 @@
         <v>240367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5949,13 @@
         <v>9674</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5982,13 +5964,13 @@
         <v>5903</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5997,13 +5979,13 @@
         <v>15577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6000,13 @@
         <v>62089</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6033,13 +6015,13 @@
         <v>54162</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -6048,13 +6030,13 @@
         <v>116251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6125,10 +6107,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6140,10 +6122,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6155,10 +6137,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6158,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6191,7 +6173,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6206,7 +6188,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6277,13 +6259,13 @@
         <v>37986</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6292,13 +6274,13 @@
         <v>30860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -6307,13 +6289,13 @@
         <v>68846</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6310,13 @@
         <v>315032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6343,13 +6325,13 @@
         <v>330351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>736</v>
@@ -6358,13 +6340,13 @@
         <v>645382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +6402,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BB2937-71D6-4408-849B-D8777E908434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA28A3DB-487A-4E2B-8149-397974BAFEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{56B994E3-723E-464F-A2A6-B273D24AC49C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86B54BC1-D4FE-4558-95A9-5CE38F2968F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="378">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -80,718 +80,724 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>90,38%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2012 (Tasa respuesta: 3,57%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
     <t>97,04%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -800,88 +806,64 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>22,02%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
     <t>95,34%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>77,98%</t>
+    <t>81,81%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
     <t>56,93%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
@@ -890,25 +872,25 @@
     <t>15,81%</t>
   </si>
   <si>
-    <t>55,26%</t>
+    <t>57,67%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>42,92%</t>
+    <t>49,58%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>44,74%</t>
+    <t>42,33%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>57,08%</t>
+    <t>50,42%</t>
   </si>
   <si>
     <t>8,07%</t>
@@ -917,196 +899,208 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>27,14%</t>
+    <t>25,22%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>25,87%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>90,08%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>92,5%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1130,43 +1124,55 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>92,45%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEDAE75-AD3D-475E-B987-83AC92462D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63969B-8EF3-422B-8E19-18BCBB83007D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BF305A-7321-4AC4-A51F-91AAEA07B9B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D623A-B158-47AA-82F4-EAA72DACF74C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,13 +3091,13 @@
         <v>947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3100,13 +3106,13 @@
         <v>3666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3127,13 @@
         <v>35898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3136,10 +3142,10 @@
         <v>28927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3151,13 +3157,13 @@
         <v>64825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3231,13 @@
         <v>4101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3240,13 +3246,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3255,13 +3261,13 @@
         <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3282,13 @@
         <v>39670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3291,10 +3297,10 @@
         <v>41272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3306,13 +3312,13 @@
         <v>80942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3392,7 @@
         <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3416,7 +3422,7 @@
         <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3440,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3449,7 +3455,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3464,7 +3470,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3535,13 +3541,13 @@
         <v>1007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3556,7 +3562,7 @@
         <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3565,13 +3571,13 @@
         <v>1007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3592,10 @@
         <v>19700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3604,7 +3610,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3616,10 +3622,10 @@
         <v>30032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3827,13 +3833,13 @@
         <v>7827</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3842,13 +3848,13 @@
         <v>2849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3857,13 +3863,13 @@
         <v>10676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3884,13 @@
         <v>134750</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>91</v>
@@ -3893,13 +3899,13 @@
         <v>97312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>221</v>
@@ -3908,13 +3914,13 @@
         <v>232062</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +3998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9709636D-1876-4B72-8830-6B6889A3AE91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D45BC-8285-4425-B063-8DC3937F0EDE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4009,7 +4015,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4116,13 +4122,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4137,7 +4143,7 @@
         <v>102</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4146,13 +4152,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,10 +4173,10 @@
         <v>16144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4185,7 +4191,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4197,10 +4203,10 @@
         <v>27787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4271,13 +4277,13 @@
         <v>4059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4286,13 +4292,13 @@
         <v>2399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4301,13 +4307,13 @@
         <v>6458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4328,13 @@
         <v>77513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -4337,10 +4343,10 @@
         <v>43892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4352,13 +4358,13 @@
         <v>121405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4432,13 @@
         <v>3794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4441,13 +4447,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4456,13 +4462,13 @@
         <v>4610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4483,13 @@
         <v>109329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4492,10 +4498,10 @@
         <v>70643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4507,13 +4513,13 @@
         <v>179971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4587,13 @@
         <v>3343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4596,13 +4602,13 @@
         <v>1026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4611,13 +4617,13 @@
         <v>4369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4638,13 @@
         <v>88085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4647,10 +4653,10 @@
         <v>55081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4662,13 +4668,13 @@
         <v>143166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4748,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4751,13 +4757,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4766,13 +4772,13 @@
         <v>1095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4796,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4802,10 +4808,10 @@
         <v>29704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4817,10 +4823,10 @@
         <v>74551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -5040,13 +5046,13 @@
         <v>12203</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5055,13 +5061,13 @@
         <v>5334</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -5070,13 +5076,13 @@
         <v>17538</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5097,13 @@
         <v>337798</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
         <v>202</v>
@@ -5106,13 +5112,13 @@
         <v>210964</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>512</v>
@@ -5121,13 +5127,13 @@
         <v>548761</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B558BD2-F3FC-49DB-94F6-2919F5DA1DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D72F2B-CCD3-4583-AE5C-097E657504DA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5344,13 +5350,13 @@
         <v>2694</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5359,13 +5365,13 @@
         <v>2694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5401,10 @@
         <v>14343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5410,10 +5416,10 @@
         <v>20741</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5484,13 +5490,13 @@
         <v>4718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5499,13 +5505,13 @@
         <v>6379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5514,13 +5520,13 @@
         <v>11096</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5541,13 @@
         <v>53714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -5550,13 +5556,13 @@
         <v>49518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -5565,13 +5571,13 @@
         <v>103233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5645,13 @@
         <v>14019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5654,13 +5660,13 @@
         <v>7200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5669,13 +5675,13 @@
         <v>21219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5696,13 @@
         <v>84721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5705,13 +5711,13 @@
         <v>73850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -5720,13 +5726,13 @@
         <v>158571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5800,13 @@
         <v>9575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5809,13 +5815,13 @@
         <v>8684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5824,13 +5830,13 @@
         <v>18259</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5851,13 @@
         <v>105019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -5860,13 +5866,13 @@
         <v>135347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
@@ -5875,13 +5881,13 @@
         <v>240367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5955,13 @@
         <v>9674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5964,13 +5970,13 @@
         <v>5903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5979,13 +5985,13 @@
         <v>15577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6006,13 @@
         <v>62089</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
@@ -6015,13 +6021,13 @@
         <v>54162</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -6030,13 +6036,13 @@
         <v>116251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,7 +6116,7 @@
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6125,7 +6131,7 @@
         <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6140,7 +6146,7 @@
         <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6164,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6173,7 +6179,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6188,7 +6194,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6259,13 +6265,13 @@
         <v>37986</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6274,13 +6280,13 @@
         <v>30860</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -6289,13 +6295,13 @@
         <v>68846</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,7 +6322,7 @@
         <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6325,13 +6331,13 @@
         <v>330351</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>736</v>
@@ -6340,13 +6346,13 @@
         <v>645382</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6907S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA28A3DB-487A-4E2B-8149-397974BAFEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC983A61-72B5-4A90-B438-17DD46E0BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{86B54BC1-D4FE-4558-95A9-5CE38F2968F3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D7932CBC-BA74-4487-B321-333B0E11FC85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="379">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -122,7 +122,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>15,27%</t>
@@ -179,7 +179,7 @@
     <t>89,5%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,79%</t>
@@ -236,7 +236,7 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>7,75%</t>
@@ -293,7 +293,7 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>8,21%</t>
@@ -344,7 +344,13 @@
     <t>98,34%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>0%</t>
@@ -353,9 +359,6 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>22,85%</t>
   </si>
   <si>
@@ -869,238 +872,238 @@
     <t>Población según si su trabajo le afecta de manera que tiene algún otro problema en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -1121,58 +1124,58 @@
     <t>84,31%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1587,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63969B-8EF3-422B-8E19-18BCBB83007D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD33DE2-707D-4234-AA69-E947643D6DFE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2479,45 +2482,41 @@
       <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,47 +2525,43 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,100 +2570,94 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>821</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>43508</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
-        <v>23</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>67134</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2666,47 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>428797</v>
+        <v>821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
-        <v>192</v>
-      </c>
-      <c r="I23" s="7">
-        <v>196496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>602</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>625293</v>
+        <v>821</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,63 +2715,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>821</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43508</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="7">
+        <v>23</v>
+      </c>
+      <c r="I25" s="7">
+        <v>23625</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7">
+        <v>63</v>
+      </c>
+      <c r="N25" s="7">
+        <v>67134</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>410</v>
+      </c>
+      <c r="D26" s="7">
+        <v>428797</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="7">
+        <v>192</v>
+      </c>
+      <c r="I26" s="7">
+        <v>196496</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="7">
+        <v>602</v>
+      </c>
+      <c r="N26" s="7">
+        <v>625293</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>450</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>472305</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>215</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>220121</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>665</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>692427</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>124</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2797,8 +2938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D623A-B158-47AA-82F4-EAA72DACF74C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0651AF-0A45-41C8-AE66-D2198A5440B9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2814,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,10 +3065,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2939,10 +3080,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2954,10 +3095,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +3116,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2990,7 +3131,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3005,7 +3146,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -3076,13 +3217,13 @@
         <v>2719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3091,13 +3232,13 @@
         <v>947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3106,13 +3247,13 @@
         <v>3666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,13 +3268,13 @@
         <v>35898</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3142,10 +3283,10 @@
         <v>28927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3157,13 +3298,13 @@
         <v>64825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3372,13 @@
         <v>4101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3246,13 +3387,13 @@
         <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3261,13 +3402,13 @@
         <v>6003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3423,13 @@
         <v>39670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -3297,10 +3438,10 @@
         <v>41272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3312,13 +3453,13 @@
         <v>80942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3530,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3404,10 +3545,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3419,10 +3560,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3581,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3455,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -3470,7 +3611,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3541,13 +3682,13 @@
         <v>1007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3559,10 +3700,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3571,13 +3712,13 @@
         <v>1007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3733,10 @@
         <v>19700</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3610,7 +3751,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -3622,10 +3763,10 @@
         <v>30032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3694,39 +3835,39 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,39 +3880,39 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,92 +3925,86 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7">
-        <v>7827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
-      </c>
-      <c r="N22" s="7">
-        <v>10676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,49 +4013,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>130</v>
-      </c>
-      <c r="D23" s="7">
-        <v>134750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
-        <v>91</v>
-      </c>
-      <c r="I23" s="7">
-        <v>97312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>221</v>
-      </c>
-      <c r="N23" s="7">
-        <v>232062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,63 +4058,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7827</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2849</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="7">
+        <v>11</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10676</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>130</v>
+      </c>
+      <c r="D26" s="7">
+        <v>134750</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7">
+        <v>97312</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="7">
+        <v>221</v>
+      </c>
+      <c r="N26" s="7">
+        <v>232062</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>138</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>142577</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>94</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>100161</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>232</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>242738</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>124</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3998,8 +4277,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1D45BC-8285-4425-B063-8DC3937F0EDE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41703A1-EEF6-41DA-BC5D-7C1EC1C51644}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4015,7 +4294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4122,13 +4401,13 @@
         <v>1007</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4140,10 +4419,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4152,13 +4431,13 @@
         <v>1007</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,10 +4452,10 @@
         <v>16144</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4191,7 +4470,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4203,10 +4482,10 @@
         <v>27787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4277,13 +4556,13 @@
         <v>4059</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4292,13 +4571,13 @@
         <v>2399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -4307,13 +4586,13 @@
         <v>6458</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4607,13 @@
         <v>77513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -4343,10 +4622,10 @@
         <v>43892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4358,13 +4637,13 @@
         <v>121405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4711,13 @@
         <v>3794</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4447,13 +4726,13 @@
         <v>815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4462,13 +4741,13 @@
         <v>4610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4762,13 @@
         <v>109329</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4498,10 +4777,10 @@
         <v>70643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4513,13 +4792,13 @@
         <v>179971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4866,13 @@
         <v>3343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4602,13 +4881,13 @@
         <v>1026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4617,13 +4896,13 @@
         <v>4369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4917,13 @@
         <v>88085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4653,10 +4932,10 @@
         <v>55081</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4668,13 +4947,13 @@
         <v>143166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +5024,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4757,13 +5036,13 @@
         <v>1095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4772,7 +5051,7 @@
         <v>1095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -4796,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -4808,10 +5087,10 @@
         <v>29704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -4823,7 +5102,7 @@
         <v>74551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>62</v>
@@ -4900,23 +5179,23 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4928,10 +5207,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +5228,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -4959,13 +5238,13 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4977,7 +5256,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5008,13 +5287,13 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -5034,55 +5313,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>12203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>17</v>
-      </c>
-      <c r="N22" s="7">
-        <v>17538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,49 +5364,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>310</v>
-      </c>
-      <c r="D23" s="7">
-        <v>337798</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
-        <v>202</v>
-      </c>
-      <c r="I23" s="7">
-        <v>210964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>512</v>
-      </c>
-      <c r="N23" s="7">
-        <v>548761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,63 +5409,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12203</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5334</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" s="7">
+        <v>17</v>
+      </c>
+      <c r="N25" s="7">
+        <v>17538</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>310</v>
+      </c>
+      <c r="D26" s="7">
+        <v>337798</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="7">
+        <v>202</v>
+      </c>
+      <c r="I26" s="7">
+        <v>210964</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" s="7">
+        <v>512</v>
+      </c>
+      <c r="N26" s="7">
+        <v>548761</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>322</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>350001</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>207</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>216298</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>566299</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>124</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5211,8 +5628,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D72F2B-CCD3-4583-AE5C-097E657504DA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A5A7C9-2C18-4471-A14F-64AC7A832809}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5228,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5338,40 +5755,40 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2694</v>
+        <v>2688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5800,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5398,13 +5815,13 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>14343</v>
+        <v>12656</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5413,13 +5830,13 @@
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>20741</v>
+        <v>18645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5434,7 +5851,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>6398</v>
+        <v>5989</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -5449,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>17037</v>
+        <v>15344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -5464,7 +5881,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>23435</v>
+        <v>21333</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -5487,46 +5904,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4718</v>
+        <v>4537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>6379</v>
+        <v>5703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>11096</v>
+        <v>10240</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,46 +5955,46 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>53714</v>
+        <v>54537</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>49518</v>
+        <v>44246</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>103233</v>
+        <v>98782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +6006,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>58432</v>
+        <v>59074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -5604,7 +6021,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>55897</v>
+        <v>49949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -5619,7 +6036,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>114329</v>
+        <v>109022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -5642,46 +6059,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>14019</v>
+        <v>13867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>7200</v>
+        <v>6872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>21219</v>
+        <v>20739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,46 +6110,46 @@
         <v>84</v>
       </c>
       <c r="D11" s="7">
-        <v>84721</v>
+        <v>81664</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>73850</v>
+        <v>68680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
       </c>
       <c r="N11" s="7">
-        <v>158571</v>
+        <v>150345</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,7 +6161,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="7">
-        <v>98740</v>
+        <v>95531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -5759,7 +6176,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="7">
-        <v>81050</v>
+        <v>75552</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -5774,7 +6191,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>179790</v>
+        <v>171084</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -5797,46 +6214,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>9575</v>
+        <v>9123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>8684</v>
+        <v>8133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>18259</v>
+        <v>17256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,46 +6265,46 @@
         <v>105</v>
       </c>
       <c r="D14" s="7">
-        <v>105019</v>
+        <v>99430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
       </c>
       <c r="I14" s="7">
-        <v>135347</v>
+        <v>146816</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>282</v>
       </c>
       <c r="N14" s="7">
-        <v>240367</v>
+        <v>246246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +6316,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>114594</v>
+        <v>108553</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -5914,7 +6331,7 @@
         <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>144031</v>
+        <v>154949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -5929,7 +6346,7 @@
         <v>304</v>
       </c>
       <c r="N15" s="7">
-        <v>258626</v>
+        <v>263502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -5952,46 +6369,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>9674</v>
+        <v>9249</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>5903</v>
+        <v>5441</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>15577</v>
+        <v>14690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,46 +6420,46 @@
         <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>62089</v>
+        <v>58187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>92</v>
       </c>
       <c r="I17" s="7">
-        <v>54162</v>
+        <v>50066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
       </c>
       <c r="N17" s="7">
-        <v>116251</v>
+        <v>108253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="7">
-        <v>71763</v>
+        <v>67436</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -6069,7 +6486,7 @@
         <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>60065</v>
+        <v>55507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -6084,7 +6501,7 @@
         <v>179</v>
       </c>
       <c r="N18" s="7">
-        <v>131828</v>
+        <v>122943</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -6113,10 +6530,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6128,10 +6545,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6143,10 +6560,10 @@
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6575,13 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -6173,13 +6590,13 @@
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -6188,13 +6605,13 @@
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -6209,7 +6626,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3090</v>
+        <v>2923</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6224,7 +6641,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3131</v>
+        <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -6239,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>6221</v>
+        <v>5836</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6253,55 +6670,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7">
-        <v>37986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
-        <v>41</v>
-      </c>
-      <c r="I22" s="7">
-        <v>30860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
-        <v>76</v>
-      </c>
-      <c r="N22" s="7">
-        <v>68846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,49 +6721,43 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>303</v>
-      </c>
-      <c r="D23" s="7">
-        <v>315032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="H23" s="7">
-        <v>433</v>
-      </c>
-      <c r="I23" s="7">
-        <v>330351</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>102</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>736</v>
-      </c>
-      <c r="N23" s="7">
-        <v>645382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,63 +6766,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>36776</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H25" s="7">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7">
+        <v>28837</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M25" s="7">
+        <v>76</v>
+      </c>
+      <c r="N25" s="7">
+        <v>65613</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>303</v>
+      </c>
+      <c r="D26" s="7">
+        <v>302729</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H26" s="7">
+        <v>433</v>
+      </c>
+      <c r="I26" s="7">
+        <v>325378</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M26" s="7">
+        <v>736</v>
+      </c>
+      <c r="N26" s="7">
+        <v>628107</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>338</v>
       </c>
-      <c r="D24" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>339505</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="I24" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>354215</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>812</v>
       </c>
-      <c r="N24" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>124</v>
+      <c r="N27" s="7">
+        <v>693720</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
